--- a/auto_theory/Pr_1.xlsx
+++ b/auto_theory/Pr_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Files\auto_theory\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Uni\Files\Uni_docs\auto_theory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82783BBF-3DFA-4CD4-83FB-6BBB895DC4A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7D853C7-C005-4DFF-85D6-A9CE11501D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2145" yWindow="2310" windowWidth="12975" windowHeight="15345" activeTab="1" xr2:uid="{45308D59-C093-401D-A760-63842F96B0D1}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" xr2:uid="{45308D59-C093-401D-A760-63842F96B0D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="34">
   <si>
     <t>Q4</t>
   </si>
@@ -151,20 +151,33 @@
   <si>
     <t>x</t>
   </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>S4</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>S0</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,7 +220,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -232,15 +245,6 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top/>
       <bottom style="thin">
@@ -473,24 +477,107 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -500,59 +587,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -573,9 +638,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office 2013–2022">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -613,7 +678,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -719,7 +784,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -861,7 +926,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -869,797 +934,1425 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A8D7D0B-C989-48E2-9118-65C03EDBEB7C}">
-  <dimension ref="B1:M22"/>
+  <dimension ref="B1:W22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="Z16" sqref="Z16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="13" max="13" width="9.23046875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="2"/>
-      <c r="C2" s="5" t="s">
+    <row r="1" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="24"/>
+      <c r="C2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="5" t="s">
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="7"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="26"/>
+      <c r="P2" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="S2" s="26"/>
+      <c r="T2" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="U2" s="26"/>
+      <c r="V2" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="W2" s="26"/>
     </row>
-    <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="3"/>
-      <c r="C3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="9" t="s">
+    <row r="3" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="23"/>
+      <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="8" t="s">
+      <c r="H3" s="23"/>
+      <c r="I3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="M3" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="N3" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q3" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="R3" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="S3" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="T3" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="U3" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="V3" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="W3" s="33" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B4" s="1">
         <v>0</v>
       </c>
-      <c r="C4" s="11">
-        <v>0</v>
-      </c>
-      <c r="D4" s="11">
-        <v>0</v>
-      </c>
-      <c r="E4" s="11">
-        <v>0</v>
-      </c>
-      <c r="F4" s="11">
-        <v>0</v>
-      </c>
-      <c r="G4" s="11">
+      <c r="C4" s="5">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5">
         <v>0</v>
       </c>
       <c r="H4" s="1">
         <v>4</v>
       </c>
-      <c r="I4" s="11">
-        <v>0</v>
-      </c>
-      <c r="J4" s="11">
-        <v>0</v>
-      </c>
-      <c r="K4" s="11">
-        <v>1</v>
-      </c>
-      <c r="L4" s="11">
-        <v>0</v>
-      </c>
-      <c r="M4" s="12">
-        <v>0</v>
+      <c r="I4" s="5">
+        <v>0</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0</v>
+      </c>
+      <c r="K4" s="5">
+        <v>1</v>
+      </c>
+      <c r="L4" s="5">
+        <v>0</v>
+      </c>
+      <c r="M4" s="27">
+        <v>0</v>
+      </c>
+      <c r="N4" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="O4" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="P4" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q4" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="R4" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="S4" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="T4" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="U4" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="V4" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="W4" s="29" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B5" s="1">
         <v>1</v>
       </c>
-      <c r="C5" s="11">
-        <v>0</v>
-      </c>
-      <c r="D5" s="11">
-        <v>0</v>
-      </c>
-      <c r="E5" s="11">
-        <v>0</v>
-      </c>
-      <c r="F5" s="11">
-        <v>0</v>
-      </c>
-      <c r="G5" s="11">
+      <c r="C5" s="5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5">
         <v>1</v>
       </c>
       <c r="H5" s="1">
         <v>5</v>
       </c>
-      <c r="I5" s="11">
-        <v>0</v>
-      </c>
-      <c r="J5" s="11">
-        <v>0</v>
-      </c>
-      <c r="K5" s="11">
-        <v>1</v>
-      </c>
-      <c r="L5" s="11">
-        <v>0</v>
-      </c>
-      <c r="M5" s="12">
-        <v>1</v>
+      <c r="I5" s="5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="5">
+        <v>1</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="27">
+        <v>1</v>
+      </c>
+      <c r="N5" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="O5" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q5" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="R5" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="S5" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="T5" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="U5" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="V5" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="W5" s="29" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B6" s="1">
         <v>2</v>
       </c>
-      <c r="C6" s="11">
-        <v>0</v>
-      </c>
-      <c r="D6" s="11">
-        <v>0</v>
-      </c>
-      <c r="E6" s="11">
-        <v>0</v>
-      </c>
-      <c r="F6" s="11">
-        <v>1</v>
-      </c>
-      <c r="G6" s="11">
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
+        <v>1</v>
+      </c>
+      <c r="G6" s="5">
         <v>0</v>
       </c>
       <c r="H6" s="1">
         <v>6</v>
       </c>
-      <c r="I6" s="11">
-        <v>0</v>
-      </c>
-      <c r="J6" s="11">
-        <v>0</v>
-      </c>
-      <c r="K6" s="11">
-        <v>1</v>
-      </c>
-      <c r="L6" s="11">
-        <v>1</v>
-      </c>
-      <c r="M6" s="12">
-        <v>0</v>
+      <c r="I6" s="5">
+        <v>0</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0</v>
+      </c>
+      <c r="K6" s="5">
+        <v>1</v>
+      </c>
+      <c r="L6" s="5">
+        <v>1</v>
+      </c>
+      <c r="M6" s="27">
+        <v>0</v>
+      </c>
+      <c r="N6" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="O6" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="P6" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q6" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="R6" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="S6" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="T6" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="U6" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="V6" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="W6" s="29" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B7" s="1">
         <v>3</v>
       </c>
-      <c r="C7" s="11">
-        <v>0</v>
-      </c>
-      <c r="D7" s="11">
-        <v>0</v>
-      </c>
-      <c r="E7" s="11">
-        <v>0</v>
-      </c>
-      <c r="F7" s="11">
-        <v>1</v>
-      </c>
-      <c r="G7" s="11">
+      <c r="C7" s="5">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5">
+        <v>1</v>
+      </c>
+      <c r="G7" s="5">
         <v>1</v>
       </c>
       <c r="H7" s="1">
         <v>7</v>
       </c>
-      <c r="I7" s="11">
-        <v>0</v>
-      </c>
-      <c r="J7" s="11">
-        <v>0</v>
-      </c>
-      <c r="K7" s="11">
-        <v>1</v>
-      </c>
-      <c r="L7" s="11">
-        <v>1</v>
-      </c>
-      <c r="M7" s="12">
-        <v>1</v>
+      <c r="I7" s="5">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0</v>
+      </c>
+      <c r="K7" s="5">
+        <v>1</v>
+      </c>
+      <c r="L7" s="5">
+        <v>1</v>
+      </c>
+      <c r="M7" s="27">
+        <v>1</v>
+      </c>
+      <c r="N7" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="O7" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="P7" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q7" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="R7" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="S7" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="T7" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="U7" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="V7" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="W7" s="29" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B8" s="1">
         <v>4</v>
       </c>
-      <c r="C8" s="11">
-        <v>0</v>
-      </c>
-      <c r="D8" s="11">
-        <v>0</v>
-      </c>
-      <c r="E8" s="11">
-        <v>1</v>
-      </c>
-      <c r="F8" s="11">
-        <v>0</v>
-      </c>
-      <c r="G8" s="11">
+      <c r="C8" s="5">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5">
         <v>0</v>
       </c>
       <c r="H8" s="1">
         <v>8</v>
       </c>
-      <c r="I8" s="11">
-        <v>0</v>
-      </c>
-      <c r="J8" s="11">
-        <v>1</v>
-      </c>
-      <c r="K8" s="11">
-        <v>0</v>
-      </c>
-      <c r="L8" s="11">
-        <v>0</v>
-      </c>
-      <c r="M8" s="12">
-        <v>0</v>
+      <c r="I8" s="5">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5">
+        <v>1</v>
+      </c>
+      <c r="K8" s="5">
+        <v>0</v>
+      </c>
+      <c r="L8" s="5">
+        <v>0</v>
+      </c>
+      <c r="M8" s="27">
+        <v>0</v>
+      </c>
+      <c r="N8" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="O8" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="P8" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q8" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="R8" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="S8" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="T8" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="U8" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="V8" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="W8" s="29" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B9" s="1">
         <v>5</v>
       </c>
-      <c r="C9" s="11">
-        <v>0</v>
-      </c>
-      <c r="D9" s="11">
-        <v>0</v>
-      </c>
-      <c r="E9" s="11">
-        <v>1</v>
-      </c>
-      <c r="F9" s="11">
-        <v>0</v>
-      </c>
-      <c r="G9" s="11">
+      <c r="C9" s="5">
+        <v>0</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0</v>
+      </c>
+      <c r="G9" s="5">
         <v>1</v>
       </c>
       <c r="H9" s="1">
         <v>9</v>
       </c>
-      <c r="I9" s="11">
-        <v>0</v>
-      </c>
-      <c r="J9" s="11">
-        <v>1</v>
-      </c>
-      <c r="K9" s="11">
-        <v>0</v>
-      </c>
-      <c r="L9" s="11">
-        <v>0</v>
-      </c>
-      <c r="M9" s="12">
-        <v>1</v>
+      <c r="I9" s="5">
+        <v>0</v>
+      </c>
+      <c r="J9" s="5">
+        <v>1</v>
+      </c>
+      <c r="K9" s="5">
+        <v>0</v>
+      </c>
+      <c r="L9" s="5">
+        <v>0</v>
+      </c>
+      <c r="M9" s="27">
+        <v>1</v>
+      </c>
+      <c r="N9" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="O9" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="P9" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q9" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="R9" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="S9" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="T9" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="U9" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="V9" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="W9" s="29" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B10" s="1">
         <v>6</v>
       </c>
-      <c r="C10" s="11">
-        <v>0</v>
-      </c>
-      <c r="D10" s="11">
-        <v>0</v>
-      </c>
-      <c r="E10" s="11">
-        <v>1</v>
-      </c>
-      <c r="F10" s="11">
-        <v>1</v>
-      </c>
-      <c r="G10" s="11">
+      <c r="C10" s="5">
+        <v>0</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5">
+        <v>1</v>
+      </c>
+      <c r="F10" s="5">
+        <v>1</v>
+      </c>
+      <c r="G10" s="5">
         <v>0</v>
       </c>
       <c r="H10" s="1">
         <v>10</v>
       </c>
-      <c r="I10" s="11">
-        <v>0</v>
-      </c>
-      <c r="J10" s="11">
-        <v>1</v>
-      </c>
-      <c r="K10" s="11">
-        <v>0</v>
-      </c>
-      <c r="L10" s="11">
-        <v>1</v>
-      </c>
-      <c r="M10" s="12">
-        <v>0</v>
+      <c r="I10" s="5">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5">
+        <v>1</v>
+      </c>
+      <c r="K10" s="5">
+        <v>0</v>
+      </c>
+      <c r="L10" s="5">
+        <v>1</v>
+      </c>
+      <c r="M10" s="27">
+        <v>0</v>
+      </c>
+      <c r="N10" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="O10" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="P10" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q10" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="R10" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="S10" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="T10" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="U10" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="V10" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="W10" s="29" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B11" s="1">
         <v>7</v>
       </c>
-      <c r="C11" s="11">
-        <v>0</v>
-      </c>
-      <c r="D11" s="11">
-        <v>0</v>
-      </c>
-      <c r="E11" s="11">
-        <v>1</v>
-      </c>
-      <c r="F11" s="11">
-        <v>1</v>
-      </c>
-      <c r="G11" s="11">
+      <c r="C11" s="5">
+        <v>0</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1</v>
+      </c>
+      <c r="F11" s="5">
+        <v>1</v>
+      </c>
+      <c r="G11" s="5">
         <v>1</v>
       </c>
       <c r="H11" s="1">
         <v>11</v>
       </c>
-      <c r="I11" s="11">
-        <v>0</v>
-      </c>
-      <c r="J11" s="11">
-        <v>1</v>
-      </c>
-      <c r="K11" s="11">
-        <v>0</v>
-      </c>
-      <c r="L11" s="11">
-        <v>1</v>
-      </c>
-      <c r="M11" s="12">
-        <v>1</v>
+      <c r="I11" s="5">
+        <v>0</v>
+      </c>
+      <c r="J11" s="5">
+        <v>1</v>
+      </c>
+      <c r="K11" s="5">
+        <v>0</v>
+      </c>
+      <c r="L11" s="5">
+        <v>1</v>
+      </c>
+      <c r="M11" s="27">
+        <v>1</v>
+      </c>
+      <c r="N11" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="O11" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="P11" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q11" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="R11" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="S11" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="T11" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="U11" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="V11" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="W11" s="29" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B12" s="1">
         <v>8</v>
       </c>
-      <c r="C12" s="11">
-        <v>0</v>
-      </c>
-      <c r="D12" s="11">
-        <v>1</v>
-      </c>
-      <c r="E12" s="11">
-        <v>0</v>
-      </c>
-      <c r="F12" s="11">
-        <v>0</v>
-      </c>
-      <c r="G12" s="11">
+      <c r="C12" s="5">
+        <v>0</v>
+      </c>
+      <c r="D12" s="5">
+        <v>1</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5">
         <v>0</v>
       </c>
       <c r="H12" s="1">
         <v>12</v>
       </c>
-      <c r="I12" s="11">
-        <v>0</v>
-      </c>
-      <c r="J12" s="11">
-        <v>1</v>
-      </c>
-      <c r="K12" s="11">
-        <v>1</v>
-      </c>
-      <c r="L12" s="11">
-        <v>0</v>
-      </c>
-      <c r="M12" s="12">
-        <v>0</v>
+      <c r="I12" s="5">
+        <v>0</v>
+      </c>
+      <c r="J12" s="5">
+        <v>1</v>
+      </c>
+      <c r="K12" s="5">
+        <v>1</v>
+      </c>
+      <c r="L12" s="5">
+        <v>0</v>
+      </c>
+      <c r="M12" s="27">
+        <v>0</v>
+      </c>
+      <c r="N12" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="O12" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="P12" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q12" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="R12" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="S12" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="T12" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="U12" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="V12" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="W12" s="29" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B13" s="1">
         <v>9</v>
       </c>
-      <c r="C13" s="11">
-        <v>0</v>
-      </c>
-      <c r="D13" s="11">
-        <v>1</v>
-      </c>
-      <c r="E13" s="11">
-        <v>0</v>
-      </c>
-      <c r="F13" s="11">
-        <v>0</v>
-      </c>
-      <c r="G13" s="11">
+      <c r="C13" s="5">
+        <v>0</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0</v>
+      </c>
+      <c r="G13" s="5">
         <v>1</v>
       </c>
       <c r="H13" s="1">
         <v>13</v>
       </c>
-      <c r="I13" s="11">
-        <v>0</v>
-      </c>
-      <c r="J13" s="11">
-        <v>1</v>
-      </c>
-      <c r="K13" s="11">
-        <v>1</v>
-      </c>
-      <c r="L13" s="11">
-        <v>0</v>
-      </c>
-      <c r="M13" s="12">
-        <v>1</v>
+      <c r="I13" s="5">
+        <v>0</v>
+      </c>
+      <c r="J13" s="5">
+        <v>1</v>
+      </c>
+      <c r="K13" s="5">
+        <v>1</v>
+      </c>
+      <c r="L13" s="5">
+        <v>0</v>
+      </c>
+      <c r="M13" s="27">
+        <v>1</v>
+      </c>
+      <c r="N13" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="O13" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="P13" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q13" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="R13" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="S13" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="T13" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="U13" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="V13" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="W13" s="29" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B14" s="1">
         <v>10</v>
       </c>
-      <c r="C14" s="11">
-        <v>0</v>
-      </c>
-      <c r="D14" s="11">
-        <v>1</v>
-      </c>
-      <c r="E14" s="11">
-        <v>0</v>
-      </c>
-      <c r="F14" s="11">
-        <v>1</v>
-      </c>
-      <c r="G14" s="11">
+      <c r="C14" s="5">
+        <v>0</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0</v>
+      </c>
+      <c r="F14" s="5">
+        <v>1</v>
+      </c>
+      <c r="G14" s="5">
         <v>0</v>
       </c>
       <c r="H14" s="1">
         <v>14</v>
       </c>
-      <c r="I14" s="11">
-        <v>0</v>
-      </c>
-      <c r="J14" s="11">
-        <v>1</v>
-      </c>
-      <c r="K14" s="11">
-        <v>1</v>
-      </c>
-      <c r="L14" s="11">
-        <v>1</v>
-      </c>
-      <c r="M14" s="12">
-        <v>0</v>
+      <c r="I14" s="5">
+        <v>0</v>
+      </c>
+      <c r="J14" s="5">
+        <v>1</v>
+      </c>
+      <c r="K14" s="5">
+        <v>1</v>
+      </c>
+      <c r="L14" s="5">
+        <v>1</v>
+      </c>
+      <c r="M14" s="27">
+        <v>0</v>
+      </c>
+      <c r="N14" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="O14" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="P14" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q14" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="R14" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="S14" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="T14" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="U14" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="V14" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="W14" s="29" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B15" s="1">
         <v>11</v>
       </c>
-      <c r="C15" s="11">
-        <v>0</v>
-      </c>
-      <c r="D15" s="11">
-        <v>1</v>
-      </c>
-      <c r="E15" s="11">
-        <v>0</v>
-      </c>
-      <c r="F15" s="11">
-        <v>1</v>
-      </c>
-      <c r="G15" s="11">
+      <c r="C15" s="5">
+        <v>0</v>
+      </c>
+      <c r="D15" s="5">
+        <v>1</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0</v>
+      </c>
+      <c r="F15" s="5">
+        <v>1</v>
+      </c>
+      <c r="G15" s="5">
         <v>1</v>
       </c>
       <c r="H15" s="1">
         <v>15</v>
       </c>
-      <c r="I15" s="11">
-        <v>0</v>
-      </c>
-      <c r="J15" s="11">
-        <v>1</v>
-      </c>
-      <c r="K15" s="11">
-        <v>1</v>
-      </c>
-      <c r="L15" s="11">
-        <v>1</v>
-      </c>
-      <c r="M15" s="12">
-        <v>1</v>
+      <c r="I15" s="5">
+        <v>0</v>
+      </c>
+      <c r="J15" s="5">
+        <v>1</v>
+      </c>
+      <c r="K15" s="5">
+        <v>1</v>
+      </c>
+      <c r="L15" s="5">
+        <v>1</v>
+      </c>
+      <c r="M15" s="27">
+        <v>1</v>
+      </c>
+      <c r="N15" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="O15" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="P15" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q15" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="R15" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="S15" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="T15" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="U15" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="V15" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="W15" s="29" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B16" s="1">
         <v>12</v>
       </c>
-      <c r="C16" s="11">
-        <v>0</v>
-      </c>
-      <c r="D16" s="11">
-        <v>1</v>
-      </c>
-      <c r="E16" s="11">
-        <v>1</v>
-      </c>
-      <c r="F16" s="11">
-        <v>0</v>
-      </c>
-      <c r="G16" s="11">
+      <c r="C16" s="5">
+        <v>0</v>
+      </c>
+      <c r="D16" s="5">
+        <v>1</v>
+      </c>
+      <c r="E16" s="5">
+        <v>1</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0</v>
+      </c>
+      <c r="G16" s="5">
         <v>0</v>
       </c>
       <c r="H16" s="1">
         <v>16</v>
       </c>
-      <c r="I16" s="11">
-        <v>1</v>
-      </c>
-      <c r="J16" s="11">
-        <v>0</v>
-      </c>
-      <c r="K16" s="11">
-        <v>0</v>
-      </c>
-      <c r="L16" s="11">
-        <v>0</v>
-      </c>
-      <c r="M16" s="12">
-        <v>0</v>
+      <c r="I16" s="5">
+        <v>1</v>
+      </c>
+      <c r="J16" s="5">
+        <v>0</v>
+      </c>
+      <c r="K16" s="5">
+        <v>0</v>
+      </c>
+      <c r="L16" s="5">
+        <v>0</v>
+      </c>
+      <c r="M16" s="27">
+        <v>0</v>
+      </c>
+      <c r="N16" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="O16" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="P16" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q16" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="R16" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="S16" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="T16" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="U16" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="V16" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="W16" s="29" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B17" s="1">
         <v>13</v>
       </c>
-      <c r="C17" s="11">
-        <v>0</v>
-      </c>
-      <c r="D17" s="11">
-        <v>1</v>
-      </c>
-      <c r="E17" s="11">
-        <v>1</v>
-      </c>
-      <c r="F17" s="11">
-        <v>0</v>
-      </c>
-      <c r="G17" s="11">
+      <c r="C17" s="5">
+        <v>0</v>
+      </c>
+      <c r="D17" s="5">
+        <v>1</v>
+      </c>
+      <c r="E17" s="5">
+        <v>1</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0</v>
+      </c>
+      <c r="G17" s="5">
         <v>1</v>
       </c>
       <c r="H17" s="1">
         <v>17</v>
       </c>
-      <c r="I17" s="11">
-        <v>1</v>
-      </c>
-      <c r="J17" s="11">
-        <v>0</v>
-      </c>
-      <c r="K17" s="11">
-        <v>0</v>
-      </c>
-      <c r="L17" s="11">
-        <v>0</v>
-      </c>
-      <c r="M17" s="12">
-        <v>1</v>
+      <c r="I17" s="5">
+        <v>1</v>
+      </c>
+      <c r="J17" s="5">
+        <v>0</v>
+      </c>
+      <c r="K17" s="5">
+        <v>0</v>
+      </c>
+      <c r="L17" s="5">
+        <v>0</v>
+      </c>
+      <c r="M17" s="27">
+        <v>1</v>
+      </c>
+      <c r="N17" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="O17" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="P17" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q17" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="R17" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="S17" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="T17" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="U17" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="V17" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="W17" s="29" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B18" s="1">
         <v>14</v>
       </c>
-      <c r="C18" s="11">
-        <v>0</v>
-      </c>
-      <c r="D18" s="11">
-        <v>1</v>
-      </c>
-      <c r="E18" s="11">
-        <v>1</v>
-      </c>
-      <c r="F18" s="11">
-        <v>1</v>
-      </c>
-      <c r="G18" s="11">
+      <c r="C18" s="5">
+        <v>0</v>
+      </c>
+      <c r="D18" s="5">
+        <v>1</v>
+      </c>
+      <c r="E18" s="5">
+        <v>1</v>
+      </c>
+      <c r="F18" s="5">
+        <v>1</v>
+      </c>
+      <c r="G18" s="5">
         <v>0</v>
       </c>
       <c r="H18" s="1">
         <v>18</v>
       </c>
-      <c r="I18" s="11">
-        <v>1</v>
-      </c>
-      <c r="J18" s="11">
-        <v>0</v>
-      </c>
-      <c r="K18" s="11">
-        <v>0</v>
-      </c>
-      <c r="L18" s="11">
-        <v>1</v>
-      </c>
-      <c r="M18" s="12">
-        <v>0</v>
+      <c r="I18" s="5">
+        <v>1</v>
+      </c>
+      <c r="J18" s="5">
+        <v>0</v>
+      </c>
+      <c r="K18" s="5">
+        <v>0</v>
+      </c>
+      <c r="L18" s="5">
+        <v>1</v>
+      </c>
+      <c r="M18" s="27">
+        <v>0</v>
+      </c>
+      <c r="N18" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="O18" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="P18" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q18" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="R18" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="S18" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="T18" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="U18" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="V18" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="W18" s="29" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B19" s="1">
         <v>15</v>
       </c>
-      <c r="C19" s="11">
-        <v>0</v>
-      </c>
-      <c r="D19" s="11">
-        <v>1</v>
-      </c>
-      <c r="E19" s="11">
-        <v>1</v>
-      </c>
-      <c r="F19" s="11">
-        <v>1</v>
-      </c>
-      <c r="G19" s="11">
+      <c r="C19" s="5">
+        <v>0</v>
+      </c>
+      <c r="D19" s="5">
+        <v>1</v>
+      </c>
+      <c r="E19" s="5">
+        <v>1</v>
+      </c>
+      <c r="F19" s="5">
+        <v>1</v>
+      </c>
+      <c r="G19" s="5">
         <v>1</v>
       </c>
       <c r="H19" s="1">
         <v>0</v>
       </c>
-      <c r="I19" s="11">
-        <v>0</v>
-      </c>
-      <c r="J19" s="11">
-        <v>0</v>
-      </c>
-      <c r="K19" s="11">
-        <v>0</v>
-      </c>
-      <c r="L19" s="11">
-        <v>0</v>
-      </c>
-      <c r="M19" s="12">
-        <v>0</v>
+      <c r="I19" s="5">
+        <v>0</v>
+      </c>
+      <c r="J19" s="5">
+        <v>0</v>
+      </c>
+      <c r="K19" s="5">
+        <v>0</v>
+      </c>
+      <c r="L19" s="5">
+        <v>0</v>
+      </c>
+      <c r="M19" s="27">
+        <v>0</v>
+      </c>
+      <c r="N19" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="O19" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="P19" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q19" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="R19" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="S19" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="T19" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="U19" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="V19" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="W19" s="29" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B20" s="1">
         <v>16</v>
       </c>
-      <c r="C20" s="11">
-        <v>1</v>
-      </c>
-      <c r="D20" s="11">
-        <v>0</v>
-      </c>
-      <c r="E20" s="11">
-        <v>0</v>
-      </c>
-      <c r="F20" s="11">
-        <v>0</v>
-      </c>
-      <c r="G20" s="11">
+      <c r="C20" s="5">
+        <v>1</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0</v>
+      </c>
+      <c r="F20" s="5">
+        <v>0</v>
+      </c>
+      <c r="G20" s="5">
         <v>0</v>
       </c>
       <c r="H20" s="1">
         <v>1</v>
       </c>
-      <c r="I20" s="11">
-        <v>0</v>
-      </c>
-      <c r="J20" s="11">
-        <v>0</v>
-      </c>
-      <c r="K20" s="11">
-        <v>0</v>
-      </c>
-      <c r="L20" s="11">
-        <v>0</v>
-      </c>
-      <c r="M20" s="12">
-        <v>1</v>
+      <c r="I20" s="5">
+        <v>0</v>
+      </c>
+      <c r="J20" s="5">
+        <v>0</v>
+      </c>
+      <c r="K20" s="5">
+        <v>0</v>
+      </c>
+      <c r="L20" s="5">
+        <v>0</v>
+      </c>
+      <c r="M20" s="27">
+        <v>1</v>
+      </c>
+      <c r="N20" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="O20" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="P20" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q20" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="R20" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="S20" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="T20" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="U20" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="V20" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="W20" s="29" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B21" s="1">
         <v>17</v>
       </c>
-      <c r="C21" s="11">
-        <v>1</v>
-      </c>
-      <c r="D21" s="11">
-        <v>0</v>
-      </c>
-      <c r="E21" s="11">
-        <v>0</v>
-      </c>
-      <c r="F21" s="11">
-        <v>0</v>
-      </c>
-      <c r="G21" s="11">
+      <c r="C21" s="5">
+        <v>1</v>
+      </c>
+      <c r="D21" s="5">
+        <v>0</v>
+      </c>
+      <c r="E21" s="5">
+        <v>0</v>
+      </c>
+      <c r="F21" s="5">
+        <v>0</v>
+      </c>
+      <c r="G21" s="5">
         <v>1</v>
       </c>
       <c r="H21" s="1">
         <v>2</v>
       </c>
-      <c r="I21" s="11">
-        <v>0</v>
-      </c>
-      <c r="J21" s="11">
-        <v>0</v>
-      </c>
-      <c r="K21" s="11">
-        <v>0</v>
-      </c>
-      <c r="L21" s="11">
-        <v>1</v>
-      </c>
-      <c r="M21" s="12">
-        <v>0</v>
+      <c r="I21" s="5">
+        <v>0</v>
+      </c>
+      <c r="J21" s="5">
+        <v>0</v>
+      </c>
+      <c r="K21" s="5">
+        <v>0</v>
+      </c>
+      <c r="L21" s="5">
+        <v>1</v>
+      </c>
+      <c r="M21" s="27">
+        <v>0</v>
+      </c>
+      <c r="N21" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="O21" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="P21" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q21" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="R21" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="S21" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="T21" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="U21" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="V21" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="W21" s="29" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="22" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="13">
+    <row r="22" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="6">
         <v>18</v>
       </c>
-      <c r="C22" s="14">
-        <v>1</v>
-      </c>
-      <c r="D22" s="14">
-        <v>0</v>
-      </c>
-      <c r="E22" s="14">
-        <v>0</v>
-      </c>
-      <c r="F22" s="14">
-        <v>1</v>
-      </c>
-      <c r="G22" s="14">
-        <v>0</v>
-      </c>
-      <c r="H22" s="13">
+      <c r="C22" s="7">
+        <v>1</v>
+      </c>
+      <c r="D22" s="7">
+        <v>0</v>
+      </c>
+      <c r="E22" s="7">
+        <v>0</v>
+      </c>
+      <c r="F22" s="7">
+        <v>1</v>
+      </c>
+      <c r="G22" s="7">
+        <v>0</v>
+      </c>
+      <c r="H22" s="6">
         <v>3</v>
       </c>
-      <c r="I22" s="14">
-        <v>0</v>
-      </c>
-      <c r="J22" s="14">
-        <v>0</v>
-      </c>
-      <c r="K22" s="14">
-        <v>0</v>
-      </c>
-      <c r="L22" s="14">
-        <v>1</v>
-      </c>
-      <c r="M22" s="15">
-        <v>1</v>
+      <c r="I22" s="7">
+        <v>0</v>
+      </c>
+      <c r="J22" s="7">
+        <v>0</v>
+      </c>
+      <c r="K22" s="7">
+        <v>0</v>
+      </c>
+      <c r="L22" s="7">
+        <v>1</v>
+      </c>
+      <c r="M22" s="7">
+        <v>1</v>
+      </c>
+      <c r="N22" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="O22" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="P22" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q22" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="R22" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="S22" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="T22" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="U22" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="V22" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="W22" s="31" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="9">
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="V2:W2"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="I2:M2"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="B2:B3"/>
+    <mergeCell ref="N2:O2"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1669,163 +2362,163 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75F55351-4832-4618-89F1-D12B9D973319}">
   <dimension ref="B3:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4:J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="23" t="s">
+    <row r="3" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="2:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B4" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="I4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="19">
+      <c r="J4" s="11">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="24" t="s">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B5" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" s="17" t="s">
+      <c r="C5" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="25" t="s">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B6" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" s="16" t="s">
+      <c r="C6" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="25" t="s">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B7" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="J7" s="16" t="s">
+      <c r="C7" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="26" t="s">
+    <row r="8" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="J8" s="16" t="s">
+      <c r="C8" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="8" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>